--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35671,6 +35671,41 @@
         <v>154000</v>
       </c>
     </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>1282800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1006"/>
+  <dimension ref="A1:I1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35706,6 +35706,41 @@
         <v>1282800</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>35100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1007"/>
+  <dimension ref="A1:I1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35741,6 +35741,41 @@
         <v>35100</v>
       </c>
     </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>23700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1008"/>
+  <dimension ref="A1:I1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35776,6 +35776,41 @@
         <v>23700</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>68200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1009"/>
+  <dimension ref="A1:I1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35811,6 +35811,41 @@
         <v>68200</v>
       </c>
     </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1010"/>
+  <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35846,6 +35846,41 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>52800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1011"/>
+  <dimension ref="A1:I1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35881,6 +35881,41 @@
         <v>52800</v>
       </c>
     </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1012"/>
+  <dimension ref="A1:I1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35916,6 +35916,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>78900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1013"/>
+  <dimension ref="A1:I1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35951,6 +35951,41 @@
         <v>78900</v>
       </c>
     </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>45600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1014"/>
+  <dimension ref="A1:I1015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35986,6 +35986,41 @@
         <v>45600</v>
       </c>
     </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>203700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1015"/>
+  <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36021,6 +36021,41 @@
         <v>203700</v>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>88300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1016"/>
+  <dimension ref="A1:I1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36056,6 +36056,41 @@
         <v>88300</v>
       </c>
     </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>230900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1017"/>
+  <dimension ref="A1:I1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36091,6 +36091,76 @@
         <v>230900</v>
       </c>
     </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>252400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1019"/>
+  <dimension ref="A1:I1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36161,6 +36161,76 @@
         <v>252400</v>
       </c>
     </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>392000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1021"/>
+  <dimension ref="A1:I1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36231,6 +36231,41 @@
         <v>392000</v>
       </c>
     </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1331400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1022"/>
+  <dimension ref="A1:I1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36266,6 +36266,41 @@
         <v>1331400</v>
       </c>
     </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1399500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1023"/>
+  <dimension ref="A1:I1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36301,6 +36301,41 @@
         <v>1399500</v>
       </c>
     </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>376700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1024"/>
+  <dimension ref="A1:I1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36336,6 +36336,41 @@
         <v>376700</v>
       </c>
     </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>452300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1025"/>
+  <dimension ref="A1:I1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36371,6 +36371,76 @@
         <v>452300</v>
       </c>
     </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>931300</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>623200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1027"/>
+  <dimension ref="A1:I1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36441,6 +36441,41 @@
         <v>623200</v>
       </c>
     </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>326500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1028"/>
+  <dimension ref="A1:I1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36476,6 +36476,41 @@
         <v>326500</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>1607400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2671"/>
+  <dimension ref="A1:I2672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93981,6 +93981,41 @@
         <v>1607400</v>
       </c>
     </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2672" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2672" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2672" t="n">
+        <v>2390400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2672"/>
+  <dimension ref="A1:I2673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94016,6 +94016,41 @@
         <v>2390400</v>
       </c>
     </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2673" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2673" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2673" t="n">
+        <v>1058500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2673"/>
+  <dimension ref="A1:I2674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94051,6 +94051,41 @@
         <v>1058500</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2674" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2674" t="n">
+        <v>1985900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2674"/>
+  <dimension ref="A1:I2675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94086,6 +94086,41 @@
         <v>1985900</v>
       </c>
     </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2675" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2675" t="n">
+        <v>923100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2675"/>
+  <dimension ref="A1:I2676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94121,6 +94121,41 @@
         <v>923100</v>
       </c>
     </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2676" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2676" t="n">
+        <v>325700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2676"/>
+  <dimension ref="A1:I2677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94156,6 +94156,41 @@
         <v>325700</v>
       </c>
     </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2677" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2677" t="n">
+        <v>903400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2677"/>
+  <dimension ref="A1:I2678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94191,6 +94191,41 @@
         <v>903400</v>
       </c>
     </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2678" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2678" t="n">
+        <v>172200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2678"/>
+  <dimension ref="A1:I2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94226,6 +94226,41 @@
         <v>172200</v>
       </c>
     </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2679" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2679" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2679" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2679" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2679" t="n">
+        <v>444900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2679"/>
+  <dimension ref="A1:I2680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94261,6 +94261,41 @@
         <v>444900</v>
       </c>
     </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2680" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2680" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2680" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H2680" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I2680" t="n">
+        <v>369000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2680"/>
+  <dimension ref="A1:I2681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94296,6 +94296,41 @@
         <v>369000</v>
       </c>
     </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2681" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2681" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2681" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2681" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2681" t="n">
+        <v>579400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2681"/>
+  <dimension ref="A1:I2682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94331,6 +94331,41 @@
         <v>579400</v>
       </c>
     </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2682" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2682" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2682" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2682" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2682" t="n">
+        <v>282800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2682"/>
+  <dimension ref="A1:I2683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94366,6 +94366,41 @@
         <v>282800</v>
       </c>
     </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2683" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2683" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2683" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H2683" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2683" t="n">
+        <v>196200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2683"/>
+  <dimension ref="A1:I2684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94401,6 +94401,41 @@
         <v>196200</v>
       </c>
     </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2684" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2684" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2684" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2684" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2684" t="n">
+        <v>180500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2684"/>
+  <dimension ref="A1:I2685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94436,6 +94436,41 @@
         <v>180500</v>
       </c>
     </row>
+    <row r="2685">
+      <c r="A2685" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2685" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2685" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2685" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2685" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2685" t="n">
+        <v>439600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5272.xlsx
+++ b/data/5272.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2685"/>
+  <dimension ref="A1:I2686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94471,6 +94471,41 @@
         <v>439600</v>
       </c>
     </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>5272</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>RANHILL</t>
+        </is>
+      </c>
+      <c r="E2686" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F2686" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2686" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H2686" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2686" t="n">
+        <v>197500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
